--- a/op_region.xlsx
+++ b/op_region.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CE_yto16\Documents\Uni stuff\Year 4\Research Project\gaussian-process-rto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{296D1CA5-60F8-4521-9C72-8DAE32929851}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A97E3E97-40FF-4E0B-A891-9501C9E2AD4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1124,13 +1124,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB51"/>
+  <dimension ref="A1:AD51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="R3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AD3" sqref="AD3"/>
+      <selection pane="bottomRight" activeCell="AC4" sqref="AC4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1138,7 +1138,7 @@
     <col min="4" max="25" width="10.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1224,7 +1224,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>3</v>
       </c>
@@ -1280,7 +1280,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1370,7 +1370,7 @@
         <v>1.0487926388888888E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1460,7 +1460,7 @@
         <v>1.0438961111111111E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>68</v>
       </c>
@@ -1549,8 +1549,9 @@
         <f t="shared" si="3"/>
         <v>1.0466476189868285E-3</v>
       </c>
+      <c r="AD5"/>
     </row>
-    <row r="6" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>69</v>
       </c>
@@ -1639,8 +1640,9 @@
         <f t="shared" si="3"/>
         <v>1.0428465997616965E-3</v>
       </c>
+      <c r="AD6"/>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1730,7 +1732,7 @@
         <v>1.0449395833333334E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1820,7 +1822,7 @@
         <v>1.0461085416666666E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1910,7 +1912,7 @@
         <v>1.0469534722222223E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -2000,7 +2002,7 @@
         <v>1.220185347222222E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -2090,7 +2092,7 @@
         <v>1.220185347222222E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -2180,7 +2182,7 @@
         <v>1.218620625E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -2270,7 +2272,7 @@
         <v>1.218620625E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -2360,7 +2362,7 @@
         <v>1.2198710416666666E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -2450,7 +2452,7 @@
         <v>1.2200693750000001E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -2540,7 +2542,7 @@
         <v>1.2167845833333333E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -2630,7 +2632,7 @@
         <v>1.2167845833333333E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -2720,7 +2722,7 @@
         <v>1.3940360416666668E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -2810,7 +2812,7 @@
         <v>1.3911422916666667E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -2900,7 +2902,7 @@
         <v>1.3939688194444446E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
         <v>70</v>
       </c>
@@ -2989,8 +2991,9 @@
         <f t="shared" si="3"/>
         <v>1.3933515393823826E-3</v>
       </c>
+      <c r="AD21"/>
     </row>
-    <row r="22" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
         <v>71</v>
       </c>
@@ -3079,8 +3082,9 @@
         <f t="shared" si="3"/>
         <v>1.3936868388313339E-3</v>
       </c>
+      <c r="AD22"/>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -3170,7 +3174,7 @@
         <v>1.3947663888888889E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -3260,7 +3264,7 @@
         <v>1.5675674305555556E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
         <v>73</v>
       </c>
@@ -3349,8 +3353,9 @@
         <f t="shared" si="3"/>
         <v>1.5651250730708425E-3</v>
       </c>
+      <c r="AD25"/>
     </row>
-    <row r="26" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
         <v>72</v>
       </c>
@@ -3439,8 +3444,9 @@
         <f t="shared" si="3"/>
         <v>1.5619184004694083E-3</v>
       </c>
+      <c r="AD26"/>
     </row>
-    <row r="27" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
         <v>74</v>
       </c>
@@ -3529,8 +3535,9 @@
         <f t="shared" si="3"/>
         <v>1.5620151712878729E-3</v>
       </c>
+      <c r="AD27"/>
     </row>
-    <row r="28" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
         <v>75</v>
       </c>
@@ -3619,8 +3626,9 @@
         <f t="shared" si="3"/>
         <v>1.5643695477128487E-3</v>
       </c>
+      <c r="AD28"/>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>25</v>
       </c>
@@ -3710,7 +3718,7 @@
         <v>1.5638097916666667E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
         <v>76</v>
       </c>
@@ -3799,8 +3807,9 @@
         <f t="shared" si="3"/>
         <v>1.569270687740639E-3</v>
       </c>
+      <c r="AD30"/>
     </row>
-    <row r="31" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
         <v>77</v>
       </c>
@@ -3889,8 +3898,9 @@
         <f t="shared" si="3"/>
         <v>1.7394928312978264E-3</v>
       </c>
+      <c r="AD31"/>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>26</v>
       </c>
@@ -5697,12 +5707,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5915,15 +5922,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9ACF382A-13C6-4CB9-BD05-C192C9609A39}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29E0BB93-5436-40E8-885F-F6D715F7FA18}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="f35accf0-cd8f-4670-ac72-d44f2085032d"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="95507c7c-a837-40bb-8a3d-470d6a1609d2"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5948,18 +5967,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29E0BB93-5436-40E8-885F-F6D715F7FA18}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9ACF382A-13C6-4CB9-BD05-C192C9609A39}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="f35accf0-cd8f-4670-ac72-d44f2085032d"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="95507c7c-a837-40bb-8a3d-470d6a1609d2"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>